--- a/material-vn/item_order.xlsx
+++ b/material-vn/item_order.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bohn/Research/QuantEx/orev-vn/material-vn/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AC2E0AA2-EB34-2242-AD47-9C322D0BA6AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E55F578E-27B6-7A46-A117-0CC2093A630F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-32100" yWindow="960" windowWidth="27840" windowHeight="16740" xr2:uid="{9D79C90C-9F7D-2F46-9E4F-8B298AB5B9D9}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029" concurrentCalc="0"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="102">
-  <si>
-    <t>item</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="85">
   <si>
     <t>target_de</t>
   </si>
@@ -53,9 +50,6 @@
     <t>unrelated_distractor_de</t>
   </si>
   <si>
-    <t>N_16</t>
-  </si>
-  <si>
     <t>schweben</t>
   </si>
   <si>
@@ -68,9 +62,6 @@
     <t>weinen</t>
   </si>
   <si>
-    <t>N_17</t>
-  </si>
-  <si>
     <t>jonglieren</t>
   </si>
   <si>
@@ -83,9 +74,6 @@
     <t>anfassen</t>
   </si>
   <si>
-    <t>N_4</t>
-  </si>
-  <si>
     <t>torkeln</t>
   </si>
   <si>
@@ -98,9 +86,6 @@
     <t>backen</t>
   </si>
   <si>
-    <t>N_2</t>
-  </si>
-  <si>
     <t>studieren</t>
   </si>
   <si>
@@ -113,9 +98,6 @@
     <t>liegen</t>
   </si>
   <si>
-    <t>N_9</t>
-  </si>
-  <si>
     <t>operieren</t>
   </si>
   <si>
@@ -128,9 +110,6 @@
     <t>rufen</t>
   </si>
   <si>
-    <t>N_14</t>
-  </si>
-  <si>
     <t>wählen</t>
   </si>
   <si>
@@ -143,9 +122,6 @@
     <t>bauen</t>
   </si>
   <si>
-    <t>N_3</t>
-  </si>
-  <si>
     <t>scheren</t>
   </si>
   <si>
@@ -158,9 +134,6 @@
     <t>begrüßen</t>
   </si>
   <si>
-    <t>N_19</t>
-  </si>
-  <si>
     <t>tadeln</t>
   </si>
   <si>
@@ -173,9 +146,6 @@
     <t>flüstern</t>
   </si>
   <si>
-    <t>N_7</t>
-  </si>
-  <si>
     <t xml:space="preserve">empfangen </t>
   </si>
   <si>
@@ -188,9 +158,6 @@
     <t>gießen</t>
   </si>
   <si>
-    <t>N_13</t>
-  </si>
-  <si>
     <t>verloben</t>
   </si>
   <si>
@@ -203,9 +170,6 @@
     <t>joggen</t>
   </si>
   <si>
-    <t>N_11</t>
-  </si>
-  <si>
     <t>faulenzen</t>
   </si>
   <si>
@@ -215,9 +179,6 @@
     <t>kochen</t>
   </si>
   <si>
-    <t>N_15</t>
-  </si>
-  <si>
     <t>liefern</t>
   </si>
   <si>
@@ -230,9 +191,6 @@
     <t>trösten</t>
   </si>
   <si>
-    <t>N_5</t>
-  </si>
-  <si>
     <t>dekorieren</t>
   </si>
   <si>
@@ -245,9 +203,6 @@
     <t>lesen</t>
   </si>
   <si>
-    <t>N_1</t>
-  </si>
-  <si>
     <t>bekennen</t>
   </si>
   <si>
@@ -272,9 +227,6 @@
     <t>malen</t>
   </si>
   <si>
-    <t>N_18</t>
-  </si>
-  <si>
     <t>türmen</t>
   </si>
   <si>
@@ -287,9 +239,6 @@
     <t>öffnen</t>
   </si>
   <si>
-    <t>N_12</t>
-  </si>
-  <si>
     <t>befreien</t>
   </si>
   <si>
@@ -311,9 +260,6 @@
     <t>schreiben</t>
   </si>
   <si>
-    <t>N_10</t>
-  </si>
-  <si>
     <t>tuscheln</t>
   </si>
   <si>
@@ -326,9 +272,6 @@
     <t>singen</t>
   </si>
   <si>
-    <t>N_6</t>
-  </si>
-  <si>
     <t>betrachten</t>
   </si>
   <si>
@@ -341,26 +284,26 @@
     <t>telefonieren</t>
   </si>
   <si>
-    <t>N_8</t>
+    <t>item_nr</t>
+  </si>
+  <si>
+    <t>target_nr</t>
+  </si>
+  <si>
+    <t>Audio</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -390,10 +333,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -728,10 +670,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{799C0DEA-28D9-6C42-8CEC-3504E277A21A}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection sqref="A1:H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -744,77 +686,101 @@
     <col min="6" max="6" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B2" t="s">
-        <v>70</v>
-      </c>
       <c r="C2" t="s">
-        <v>71</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>72</v>
+        <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
+      </c>
+      <c r="F2">
+        <v>3</v>
+      </c>
+      <c r="H2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>35</v>
+        <v>11</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
         <v>15</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>16</v>
@@ -828,146 +794,200 @@
       <c r="E5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>64</v>
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="H5">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="E6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>96</v>
+        <v>23</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="H6">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>97</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>98</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>99</v>
+        <v>26</v>
       </c>
       <c r="E7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="H7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="H9">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10">
+        <v>4</v>
+      </c>
+      <c r="H10">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" t="s">
         <v>45</v>
       </c>
-      <c r="B8" t="s">
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" t="s">
         <v>46</v>
       </c>
-      <c r="C8" t="s">
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
         <v>47</v>
       </c>
-      <c r="D8" t="s">
+      <c r="C13" t="s">
         <v>48</v>
       </c>
-      <c r="E8" t="s">
+      <c r="D13" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B9" t="s">
-        <v>88</v>
-      </c>
-      <c r="C9" t="s">
-        <v>89</v>
-      </c>
-      <c r="D9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B11" t="s">
-        <v>92</v>
-      </c>
-      <c r="C11" t="s">
-        <v>93</v>
-      </c>
-      <c r="D11" t="s">
-        <v>94</v>
-      </c>
-      <c r="E11" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B12" t="s">
-        <v>56</v>
-      </c>
-      <c r="C12" t="s">
-        <v>57</v>
-      </c>
-      <c r="D12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B13" t="s">
-        <v>84</v>
-      </c>
-      <c r="C13" t="s">
-        <v>85</v>
-      </c>
-      <c r="D13" t="s">
-        <v>86</v>
-      </c>
       <c r="E13" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
         <v>50</v>
+      </c>
+      <c r="F13">
+        <v>3</v>
+      </c>
+      <c r="H13">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>51</v>
@@ -981,121 +1001,172 @@
       <c r="E14" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>30</v>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="H14">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="D15" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="E15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
         <v>59</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>60</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>61</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>62</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="H16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" t="s">
-        <v>6</v>
-      </c>
       <c r="C17" t="s">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="D17" t="s">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="E17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>10</v>
+        <v>66</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="C18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" t="s">
+        <v>70</v>
+      </c>
+      <c r="F18">
+        <v>4</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" t="s">
+        <v>72</v>
+      </c>
+      <c r="D19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" t="s">
+        <v>73</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" t="s">
+        <v>76</v>
+      </c>
+      <c r="E20" t="s">
+        <v>77</v>
+      </c>
+      <c r="F20">
+        <v>4</v>
+      </c>
+      <c r="H20">
         <v>12</v>
       </c>
-      <c r="D18" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
         <v>78</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C21" t="s">
         <v>79</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D21" t="s">
         <v>80</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E21" t="s">
         <v>81</v>
       </c>
-      <c r="E19" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" t="s">
-        <v>42</v>
-      </c>
-      <c r="D20" t="s">
-        <v>43</v>
-      </c>
-      <c r="E20" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
-        <v>74</v>
-      </c>
-      <c r="C21" t="s">
-        <v>75</v>
-      </c>
-      <c r="D21" t="s">
-        <v>76</v>
-      </c>
-      <c r="E21" t="s">
-        <v>77</v>
+      <c r="F21">
+        <v>3</v>
+      </c>
+      <c r="H21">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/material-vn/item_order.xlsx
+++ b/material-vn/item_order.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bohn/Research/QuantEx/orev-vn/material-vn/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juliaprein/academiccloudsync/studies/orev-vn/material-vn/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E55F578E-27B6-7A46-A117-0CC2093A630F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AB598A4-DCCC-C244-BC5C-16C902E67FA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-32100" yWindow="960" windowWidth="27840" windowHeight="16740" xr2:uid="{9D79C90C-9F7D-2F46-9E4F-8B298AB5B9D9}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{9D79C90C-9F7D-2F46-9E4F-8B298AB5B9D9}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -41,15 +41,6 @@
     <t>target_de</t>
   </si>
   <si>
-    <t>phonological_distractor_de</t>
-  </si>
-  <si>
-    <t>semantic_distractor_de</t>
-  </si>
-  <si>
-    <t>unrelated_distractor_de</t>
-  </si>
-  <si>
     <t>schweben</t>
   </si>
   <si>
@@ -291,6 +282,15 @@
   </si>
   <si>
     <t>Audio</t>
+  </si>
+  <si>
+    <t>dist1_semantic_distractor_de</t>
+  </si>
+  <si>
+    <t>dist2_phonological_distractor_de</t>
+  </si>
+  <si>
+    <t>dist3_unrelated_distractor_de</t>
   </si>
 </sst>
 </file>
@@ -338,7 +338,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -354,7 +354,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -672,41 +672,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{799C0DEA-28D9-6C42-8CEC-3504E277A21A}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H21"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.33203125" customWidth="1"/>
     <col min="2" max="2" width="13.6640625" customWidth="1"/>
-    <col min="3" max="3" width="24.6640625" customWidth="1"/>
-    <col min="4" max="4" width="23" customWidth="1"/>
-    <col min="5" max="5" width="24.1640625" customWidth="1"/>
+    <col min="3" max="3" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>82</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>83</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>84</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -714,16 +714,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
         <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
       </c>
       <c r="F2">
         <v>3</v>
@@ -737,16 +737,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
         <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -760,16 +760,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
         <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -783,16 +783,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
         <v>16</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" t="s">
-        <v>19</v>
       </c>
       <c r="F5">
         <v>4</v>
@@ -806,16 +806,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" t="s">
         <v>20</v>
-      </c>
-      <c r="C6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" t="s">
-        <v>23</v>
       </c>
       <c r="F6">
         <v>3</v>
@@ -829,16 +829,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" t="s">
         <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" t="s">
-        <v>27</v>
       </c>
       <c r="F7">
         <v>4</v>
@@ -852,16 +852,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" t="s">
         <v>28</v>
-      </c>
-      <c r="C8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" t="s">
-        <v>31</v>
       </c>
       <c r="F8">
         <v>2</v>
@@ -875,16 +875,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" t="s">
         <v>32</v>
-      </c>
-      <c r="C9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" t="s">
-        <v>35</v>
       </c>
       <c r="F9">
         <v>2</v>
@@ -898,16 +898,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" t="s">
         <v>36</v>
-      </c>
-      <c r="C10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" t="s">
-        <v>39</v>
       </c>
       <c r="F10">
         <v>4</v>
@@ -921,16 +921,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" t="s">
         <v>40</v>
-      </c>
-      <c r="C11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" t="s">
-        <v>43</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -944,16 +944,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C12" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="E12" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -967,16 +967,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" t="s">
         <v>47</v>
-      </c>
-      <c r="C13" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" t="s">
-        <v>49</v>
-      </c>
-      <c r="E13" t="s">
-        <v>50</v>
       </c>
       <c r="F13">
         <v>3</v>
@@ -990,16 +990,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" t="s">
         <v>51</v>
-      </c>
-      <c r="C14" t="s">
-        <v>52</v>
-      </c>
-      <c r="D14" t="s">
-        <v>53</v>
-      </c>
-      <c r="E14" t="s">
-        <v>54</v>
       </c>
       <c r="F14">
         <v>2</v>
@@ -1013,16 +1013,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" t="s">
         <v>55</v>
-      </c>
-      <c r="C15" t="s">
-        <v>56</v>
-      </c>
-      <c r="D15" t="s">
-        <v>57</v>
-      </c>
-      <c r="E15" t="s">
-        <v>58</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -1036,16 +1036,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" t="s">
         <v>59</v>
-      </c>
-      <c r="C16" t="s">
-        <v>60</v>
-      </c>
-      <c r="D16" t="s">
-        <v>61</v>
-      </c>
-      <c r="E16" t="s">
-        <v>62</v>
       </c>
       <c r="F16">
         <v>2</v>
@@ -1059,16 +1059,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" t="s">
         <v>63</v>
-      </c>
-      <c r="C17" t="s">
-        <v>64</v>
-      </c>
-      <c r="D17" t="s">
-        <v>65</v>
-      </c>
-      <c r="E17" t="s">
-        <v>66</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -1082,16 +1082,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18" t="s">
         <v>67</v>
-      </c>
-      <c r="C18" t="s">
-        <v>68</v>
-      </c>
-      <c r="D18" t="s">
-        <v>69</v>
-      </c>
-      <c r="E18" t="s">
-        <v>70</v>
       </c>
       <c r="F18">
         <v>4</v>
@@ -1105,16 +1105,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C19" t="s">
-        <v>72</v>
+        <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>4</v>
+        <v>69</v>
       </c>
       <c r="E19" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -1128,16 +1128,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20" t="s">
+        <v>72</v>
+      </c>
+      <c r="E20" t="s">
         <v>74</v>
-      </c>
-      <c r="C20" t="s">
-        <v>75</v>
-      </c>
-      <c r="D20" t="s">
-        <v>76</v>
-      </c>
-      <c r="E20" t="s">
-        <v>77</v>
       </c>
       <c r="F20">
         <v>4</v>
@@ -1151,16 +1151,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21" t="s">
+        <v>76</v>
+      </c>
+      <c r="E21" t="s">
         <v>78</v>
-      </c>
-      <c r="C21" t="s">
-        <v>79</v>
-      </c>
-      <c r="D21" t="s">
-        <v>80</v>
-      </c>
-      <c r="E21" t="s">
-        <v>81</v>
       </c>
       <c r="F21">
         <v>3</v>

--- a/material-vn/item_order.xlsx
+++ b/material-vn/item_order.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bohn/Research/QuantEx/orev-vn/material-vn/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ameli\Desktop\Arbeit\orev-vn\material-vn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E55F578E-27B6-7A46-A117-0CC2093A630F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8E52462-CC6A-4ED0-9A56-026AFC9626C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-32100" yWindow="960" windowWidth="27840" windowHeight="16740" xr2:uid="{9D79C90C-9F7D-2F46-9E4F-8B298AB5B9D9}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{9D79C90C-9F7D-2F46-9E4F-8B298AB5B9D9}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -263,9 +264,6 @@
     <t>tuscheln</t>
   </si>
   <si>
-    <t>tuschen</t>
-  </si>
-  <si>
     <t>verpetzen</t>
   </si>
   <si>
@@ -291,6 +289,9 @@
   </si>
   <si>
     <t>Audio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tuschen         </t>
   </si>
 </sst>
 </file>
@@ -673,22 +674,22 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H21"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" customWidth="1"/>
-    <col min="3" max="3" width="24.6640625" customWidth="1"/>
+    <col min="1" max="1" width="11.296875" customWidth="1"/>
+    <col min="2" max="2" width="13.69921875" customWidth="1"/>
+    <col min="3" max="3" width="24.69921875" customWidth="1"/>
     <col min="4" max="4" width="23" customWidth="1"/>
-    <col min="5" max="5" width="24.1640625" customWidth="1"/>
+    <col min="5" max="5" width="24.19921875" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -703,13 +704,13 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -732,7 +733,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -755,7 +756,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -778,7 +779,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -801,7 +802,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -824,7 +825,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -847,7 +848,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -870,7 +871,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -893,7 +894,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -916,7 +917,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -939,7 +940,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -962,7 +963,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -985,7 +986,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1008,7 +1009,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1031,7 +1032,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1054,7 +1055,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1077,7 +1078,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1100,7 +1101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1123,7 +1124,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1131,13 +1132,13 @@
         <v>74</v>
       </c>
       <c r="C20" t="s">
+        <v>84</v>
+      </c>
+      <c r="D20" t="s">
         <v>75</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>76</v>
-      </c>
-      <c r="E20" t="s">
-        <v>77</v>
       </c>
       <c r="F20">
         <v>4</v>
@@ -1146,21 +1147,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" t="s">
         <v>78</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>79</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>80</v>
-      </c>
-      <c r="E21" t="s">
-        <v>81</v>
       </c>
       <c r="F21">
         <v>3</v>

--- a/material-vn/item_order.xlsx
+++ b/material-vn/item_order.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ameli\Desktop\Arbeit\orev-vn\material-vn\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juliaprein/academiccloudsync/studies/orev-vn/public/material-vn/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8E52462-CC6A-4ED0-9A56-026AFC9626C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E35FB9B-B0CD-A049-981F-6007DA32CD56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{9D79C90C-9F7D-2F46-9E4F-8B298AB5B9D9}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{9D79C90C-9F7D-2F46-9E4F-8B298AB5B9D9}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -339,7 +338,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -355,7 +354,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -673,21 +672,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{799C0DEA-28D9-6C42-8CEC-3504E277A21A}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" zoomScale="155" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.296875" customWidth="1"/>
-    <col min="2" max="2" width="13.69921875" customWidth="1"/>
-    <col min="3" max="3" width="24.69921875" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" customWidth="1"/>
     <col min="4" max="4" width="23" customWidth="1"/>
-    <col min="5" max="5" width="24.19921875" customWidth="1"/>
+    <col min="5" max="5" width="24.1640625" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>81</v>
       </c>
@@ -710,7 +709,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -733,7 +732,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -756,7 +755,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -779,7 +778,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -802,7 +801,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -825,7 +824,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -848,7 +847,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -871,7 +870,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -894,7 +893,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -917,7 +916,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -940,7 +939,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -963,7 +962,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -986,7 +985,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1009,7 +1008,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1032,7 +1031,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1055,7 +1054,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1078,7 +1077,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1101,7 +1100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1124,7 +1123,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1147,7 +1146,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
